--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_3-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_3-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.26004497115787</v>
+        <v>6.825071951263016</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01153588177597929</v>
+        <v>0.04440379758328475</v>
       </c>
       <c r="I2" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>625</v>
+        <v>125</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -571,22 +571,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>62.14049181868748</v>
+        <v>59.1794058847755</v>
       </c>
       <c r="O2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="P2" t="n">
-        <v>7.469844440637485</v>
+        <v>8.363142243063262</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.700737773779453</v>
+        <v>0.1928856979725876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.985934045828567</v>
+        <v>14.74118882063965</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05587402412082386</v>
+        <v>0.0887447343204084</v>
       </c>
       <c r="I3" t="n">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>711</v>
+        <v>61</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -630,83 +630,3359 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>IsNone</t>
+          <t>0.1,0.5,0.9</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>96.8279314295505</v>
+        <v>89.39275152354239</v>
       </c>
       <c r="O3" t="n">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>7.315759445418593</v>
+        <v>4.294738836104665</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.374238849721736</v>
+        <v>9.666655886558409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15.74190739292793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02928034331566227</v>
+      </c>
+      <c r="I4" t="n">
+        <v>128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>545</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>19.70570919682766</v>
+      </c>
+      <c r="O4" t="n">
+        <v>238</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.022352472962516</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.223523103128708</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4.718373895257518</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08987255095273219</v>
+      </c>
+      <c r="I5" t="n">
+        <v>187</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>936</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>99.79672700022373</v>
+      </c>
+      <c r="O5" t="n">
+        <v>232</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.985935401465907</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.235978947204873</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.627054449582822</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.009142766119153678</v>
+      </c>
+      <c r="I6" t="n">
+        <v>137</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>278</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>76.67763367899184</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.839538368924726</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.374896681031077</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.273718793260986</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05388480065631598</v>
+      </c>
+      <c r="I7" t="n">
+        <v>170</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>541</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>19.81836444662684</v>
+      </c>
+      <c r="O7" t="n">
+        <v>44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.058286827372426</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.323887197171716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.793105141804533e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04489420499801394</v>
+      </c>
+      <c r="I8" t="n">
+        <v>127</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>509</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>30.2524646556759</v>
+      </c>
+      <c r="O8" t="n">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.70320587155735</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.018534817136367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1965222067878378</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02768946174036679</v>
+      </c>
+      <c r="I9" t="n">
+        <v>187</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>563</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>61.09132982268645</v>
+      </c>
+      <c r="O9" t="n">
+        <v>182</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.13526287592291</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7373659822058519</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005377669767356631</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.09225268435146729</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>90.6549941345795</v>
+      </c>
+      <c r="O10" t="n">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.690495960630978</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.059015640898648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13.1507432992922</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04919725696176452</v>
+      </c>
+      <c r="I11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>916</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>30.15084238487524</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.472051380321475</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.511913736868103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.652586428197007</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001453418783753842</v>
+      </c>
+      <c r="I12" t="n">
+        <v>159</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>64</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>23.57181889981146</v>
+      </c>
+      <c r="O12" t="n">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.789594934650887</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.732408160802715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.863764106037717</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01457034522698212</v>
+      </c>
+      <c r="I13" t="n">
+        <v>193</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>132</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>7.502516093964951</v>
+      </c>
+      <c r="O13" t="n">
+        <v>240</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.521936129913986</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.731012981784541</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.473194511181869e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06829768001696895</v>
+      </c>
+      <c r="I14" t="n">
+        <v>96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>296</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>13.64881709526317</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.190234840192972</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.605338789500992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.378034782453015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04475384255199621</v>
+      </c>
+      <c r="I15" t="n">
+        <v>94</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>995</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>47.53714310441335</v>
+      </c>
+      <c r="O15" t="n">
+        <v>44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.931478572808668</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.121649486268973</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3936156977999923</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.09536068420790854</v>
+      </c>
+      <c r="I16" t="n">
+        <v>59</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>319</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>10.19406811291087</v>
+      </c>
+      <c r="O16" t="n">
+        <v>224</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.747880099897712</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1245179636301684</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0246149476403615</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001613890416704592</v>
+      </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>97</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>72.70231705360737</v>
+      </c>
+      <c r="O17" t="n">
+        <v>156</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9918104013646304</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.509656106712378</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01940618282373651</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03320186618730723</v>
+      </c>
+      <c r="I18" t="n">
+        <v>192</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>148</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>94.66996820886148</v>
+      </c>
+      <c r="O18" t="n">
+        <v>47</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.474643924238398</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4192395053395268</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01905620163104121</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05027421102958114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>87</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>567</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>52.45531148163845</v>
+      </c>
+      <c r="O19" t="n">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.004001978709661</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.207001975191626</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6324848067358122</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.001595552187053326</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" t="n">
+        <v>137</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1089947550526986</v>
+      </c>
+      <c r="O20" t="n">
+        <v>49</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.488339442778368</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.983889525734162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15.65381412205804</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01916818552289699</v>
+      </c>
+      <c r="I21" t="n">
+        <v>90</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" t="n">
+        <v>253</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>27.45481966504839</v>
+      </c>
+      <c r="O21" t="n">
+        <v>140</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.110840739901715</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.832628902632612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8.267642813156584</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04072346226878214</v>
+      </c>
+      <c r="I22" t="n">
+        <v>102</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>45</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>75.43479352151712</v>
+      </c>
+      <c r="O22" t="n">
+        <v>43</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.954964275802901</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>8.8097231697314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.825929569021575</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01951018880732647</v>
+      </c>
+      <c r="I23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>385</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>26.10780002187013</v>
+      </c>
+      <c r="O23" t="n">
+        <v>140</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6039438096739884</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1461815870120331</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9.106475763294578e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02075919567748392</v>
+      </c>
+      <c r="I24" t="n">
+        <v>101</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>629</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>81.07626147931234</v>
+      </c>
+      <c r="O24" t="n">
+        <v>108</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6679896498475242</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.042898401619142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5.899226302624119</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0598764591079226</v>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>972</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>47.12611124330449</v>
+      </c>
+      <c r="O25" t="n">
+        <v>206</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6.717434921655245</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8.974550829238142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004297854843423318</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01085558282656443</v>
+      </c>
+      <c r="I26" t="n">
+        <v>106</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>446</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>92.82563760782199</v>
+      </c>
+      <c r="O26" t="n">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1361743766991304</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.885425599615832</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5506113485370494</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001035802019311455</v>
+      </c>
+      <c r="I27" t="n">
+        <v>139</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>324</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>28.19123333095911</v>
+      </c>
+      <c r="O27" t="n">
+        <v>182</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7372483449115759</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>8.684038040065859</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01496201941434529</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.09862311482701126</v>
+      </c>
+      <c r="I28" t="n">
+        <v>129</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>176</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>41.91091242649267</v>
+      </c>
+      <c r="O28" t="n">
+        <v>254</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.605498489802375</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.6138014403096905</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4957046362908167</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.03179707953498133</v>
+      </c>
+      <c r="I29" t="n">
+        <v>193</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>43.03391352691709</v>
+      </c>
+      <c r="O29" t="n">
+        <v>171</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.83815757430011</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8.77367062904494</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2426582392317719</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00104526283237499</v>
+      </c>
+      <c r="I30" t="n">
+        <v>132</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>987</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>32.62117857573246</v>
+      </c>
+      <c r="O30" t="n">
+        <v>224</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.548511784696159</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.327001006872548</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04829116111791651</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04182816948466492</v>
+      </c>
+      <c r="I31" t="n">
+        <v>63</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>951</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>82.68408081367903</v>
+      </c>
+      <c r="O31" t="n">
+        <v>243</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.505814274661344</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.7625794507680629</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10.81776949344903</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01675199949910955</v>
+      </c>
+      <c r="I32" t="n">
+        <v>77</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>209</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>64.16242681792025</v>
+      </c>
+      <c r="O32" t="n">
+        <v>255</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.063213444841086</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3247381907490468</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04334612475103003</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001547699598363319</v>
+      </c>
+      <c r="I33" t="n">
+        <v>77</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>224</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>78.60363299293957</v>
+      </c>
+      <c r="O33" t="n">
+        <v>174</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5841892702848268</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.724839885000513</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10.53896675268721</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0379567099911604</v>
+      </c>
+      <c r="I34" t="n">
+        <v>94</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>112</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>55.76310316001886</v>
+      </c>
+      <c r="O34" t="n">
+        <v>168</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.09259430120181</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4.548643771253179</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.579205443339261</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.009639292627732601</v>
+      </c>
+      <c r="I35" t="n">
+        <v>58</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>866</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>94.86244651862728</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.883213745690455</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.178679386054342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.298845979312461</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.07448383785338994</v>
+      </c>
+      <c r="I36" t="n">
+        <v>101</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>231</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>62.49725305756163</v>
+      </c>
+      <c r="O36" t="n">
+        <v>103</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8.814731140049977</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.233825584694853</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.786280790036645</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.006157708670411127</v>
+      </c>
+      <c r="I37" t="n">
+        <v>60</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14</v>
+      </c>
+      <c r="K37" t="n">
+        <v>125</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>6.055358323573548</v>
+      </c>
+      <c r="O37" t="n">
+        <v>217</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6176754766143681</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.8671479386959486</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7.826426599403267</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-3,-4,-5</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.08120910868023211</v>
-      </c>
-      <c r="I4" t="n">
-        <v>199</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.616343747696368</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.002929141149479134</v>
+      </c>
+      <c r="I38" t="n">
+        <v>117</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>376</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>39.36254981879783</v>
+      </c>
+      <c r="O38" t="n">
+        <v>170</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.503156974775576</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.555552059668594</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.807611868201158</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01706207808934639</v>
+      </c>
+      <c r="I39" t="n">
+        <v>120</v>
+      </c>
+      <c r="J39" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>583</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="K39" t="n">
+        <v>705</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>83.92908078773854</v>
+      </c>
+      <c r="O39" t="n">
+        <v>217</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9.936962351957204</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7.31740250356131</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10.43607309437374</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.008637420327977676</v>
+      </c>
+      <c r="I40" t="n">
+        <v>97</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" t="n">
+        <v>337</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>78.31611463016917</v>
+      </c>
+      <c r="O40" t="n">
+        <v>139</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.238070629148748</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9.251440307004136</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.163062594418623e-06</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.07209502289789488</v>
+      </c>
+      <c r="I41" t="n">
+        <v>80</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>866</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>81.90620680984918</v>
+      </c>
+      <c r="O41" t="n">
+        <v>255</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.740733994825307</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.243002880620767</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.338629411589553</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.004326051207882606</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>721</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>81.73523973818283</v>
+      </c>
+      <c r="O42" t="n">
+        <v>114</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.544015684072533</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4.700708926034392</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1648058544685396</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02014695996281743</v>
+      </c>
+      <c r="I43" t="n">
+        <v>200</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>374</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>89.1828956338861</v>
+      </c>
+      <c r="O43" t="n">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.407952031815296</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>9.758051857647734</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.222246902303248</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02495685465268205</v>
+      </c>
+      <c r="I44" t="n">
+        <v>95</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>319</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>46.25505655584229</v>
+      </c>
+      <c r="O44" t="n">
+        <v>117</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.894350944783871</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.969915057244494</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02177953312676937</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.05174710805406495</v>
+      </c>
+      <c r="I45" t="n">
+        <v>132</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>260</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>84.47872494614427</v>
+      </c>
+      <c r="O45" t="n">
+        <v>75</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.576700245118418</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.662602618959951</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10.10652010598337</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.00212252046825814</v>
+      </c>
+      <c r="I46" t="n">
+        <v>84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>765</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>IsNone</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>65.89455774084887</v>
-      </c>
-      <c r="O4" t="n">
-        <v>226</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.71830419272158</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.988451442166199</v>
+      <c r="N46" t="n">
+        <v>0.1023923488413621</v>
+      </c>
+      <c r="O46" t="n">
+        <v>82</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.034594950974115</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>7.709543906115024</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.748827961791973</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001078991337502002</v>
+      </c>
+      <c r="I47" t="n">
+        <v>98</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>80</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>21.68606763180092</v>
+      </c>
+      <c r="O47" t="n">
+        <v>145</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.306122466744927</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>9.298808046691953</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4.881250818482533e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01673616211605727</v>
+      </c>
+      <c r="I48" t="n">
+        <v>65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>457</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>32.49154286072678</v>
+      </c>
+      <c r="O48" t="n">
+        <v>42</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.876569333141512</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8.812921369028091</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8.175095028919287</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.05526568351604999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>142</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>553</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>76.89972174170947</v>
+      </c>
+      <c r="O49" t="n">
+        <v>179</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.400297837744215</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6.6092076975685</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2337763579104976</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.004712467693719139</v>
+      </c>
+      <c r="I50" t="n">
+        <v>92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14</v>
+      </c>
+      <c r="K50" t="n">
+        <v>653</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>90.08110536894439</v>
+      </c>
+      <c r="O50" t="n">
+        <v>190</v>
+      </c>
+      <c r="P50" t="n">
+        <v>9.199697699363121</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.844807883108961</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02189575676547433</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02697648883643726</v>
+      </c>
+      <c r="I51" t="n">
+        <v>53</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>215</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>73.02749070571954</v>
+      </c>
+      <c r="O51" t="n">
+        <v>38</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.666554105135817</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>6.466766955020789</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005256121577423327</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.08555664353286946</v>
+      </c>
+      <c r="I52" t="n">
+        <v>81</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>217</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>74.59794303977749</v>
+      </c>
+      <c r="O52" t="n">
+        <v>129</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.11259255714995</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9.801900964993688</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.15406121859133</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001384092050599679</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>16.9489233363596</v>
+      </c>
+      <c r="O53" t="n">
+        <v>156</v>
+      </c>
+      <c r="P53" t="n">
+        <v>8.10465969282601</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>6.55010249127184</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.383279809026807</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.09830942343459542</v>
+      </c>
+      <c r="I54" t="n">
+        <v>73</v>
+      </c>
+      <c r="J54" t="n">
+        <v>13</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>78.90693453225646</v>
+      </c>
+      <c r="O54" t="n">
+        <v>131</v>
+      </c>
+      <c r="P54" t="n">
+        <v>8.679738299643592</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>6.829354818483563</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7.85309191333993</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01350420246156947</v>
+      </c>
+      <c r="I55" t="n">
+        <v>86</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="n">
+        <v>899</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>41.70959380170218</v>
+      </c>
+      <c r="O55" t="n">
+        <v>42</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.546919110321666</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.633050361953432</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8.278917609205189</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-3,-4,-5</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.09273654286717077</v>
+      </c>
+      <c r="I56" t="n">
+        <v>138</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>90</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>23.62230280284977</v>
+      </c>
+      <c r="O56" t="n">
+        <v>94</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6393281433078302</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.1234021265793153</v>
       </c>
     </row>
   </sheetData>
